--- a/Strategy Analysis/BNL.xlsx
+++ b/Strategy Analysis/BNL.xlsx
@@ -51789,7 +51789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52371,7 +52371,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -52379,16 +52379,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>852965</v>
+        <v>828960</v>
       </c>
       <c r="E21" t="n">
-        <v>16.23</v>
+        <v>16.7</v>
       </c>
       <c r="F21" t="n">
-        <v>12.49000000208616</v>
+        <v>2.44000000320375</v>
       </c>
       <c r="G21" t="n">
-        <v>852965</v>
+        <v>828960</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -52399,7 +52399,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>44992</v>
+        <v>45057</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -52407,19 +52407,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>852965</v>
+        <v>828960</v>
       </c>
       <c r="E22" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>16632829.99</v>
+        <v>12434402.44</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2789195.549999999</v>
+        <v>-1409232</v>
       </c>
     </row>
     <row r="23">
@@ -52427,7 +52427,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>44993</v>
+        <v>45086</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -52435,16 +52435,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>852965</v>
+        <v>726733</v>
       </c>
       <c r="E23" t="n">
-        <v>19.5</v>
+        <v>17.11</v>
       </c>
       <c r="F23" t="n">
-        <v>12.49000000208616</v>
+        <v>0.8100000042468309</v>
       </c>
       <c r="G23" t="n">
-        <v>852965</v>
+        <v>726733</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -52455,7 +52455,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>45007</v>
+        <v>45153</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -52463,19 +52463,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>852965</v>
+        <v>726733</v>
       </c>
       <c r="E24" t="n">
-        <v>16.85</v>
+        <v>15.26</v>
       </c>
       <c r="F24" t="n">
-        <v>14372472.74</v>
+        <v>11089946.39</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-2260357.249999998</v>
+        <v>-1344456.049999999</v>
       </c>
     </row>
     <row r="25">
@@ -52483,7 +52483,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>45086</v>
+        <v>45222</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -52491,16 +52491,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>840004</v>
+        <v>768001</v>
       </c>
       <c r="E25" t="n">
-        <v>17.11</v>
+        <v>14.44</v>
       </c>
       <c r="F25" t="n">
-        <v>4.300000004470348</v>
+        <v>11.95000000484288</v>
       </c>
       <c r="G25" t="n">
-        <v>840004</v>
+        <v>768001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -52511,7 +52511,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>45153</v>
+        <v>45272</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -52519,131 +52519,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>840004</v>
+        <v>768001</v>
       </c>
       <c r="E26" t="n">
-        <v>15.26</v>
+        <v>17.6</v>
       </c>
       <c r="F26" t="n">
-        <v>12818465.34</v>
+        <v>13516829.55000001</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1554007.4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>45222</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>887705</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.140000004321337</v>
-      </c>
-      <c r="G27" t="n">
-        <v>887705</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>45272</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>887705</v>
-      </c>
-      <c r="E28" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15623613.14000001</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2805147.800000003</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>45273</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>918495</v>
-      </c>
-      <c r="E29" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="F29" t="n">
-        <v>13.19000000506639</v>
-      </c>
-      <c r="G29" t="n">
-        <v>918495</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>45279</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>918495</v>
-      </c>
-      <c r="E30" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="F30" t="n">
-        <v>14016246.89</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-1607366.250000002</v>
+        <v>2426883.160000002</v>
       </c>
     </row>
   </sheetData>
